--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H2">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I2">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J2">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N2">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O2">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P2">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q2">
-        <v>42.24360683708935</v>
+        <v>67.23255516046912</v>
       </c>
       <c r="R2">
-        <v>42.24360683708935</v>
+        <v>605.0929964442221</v>
       </c>
       <c r="S2">
-        <v>0.001402496226913877</v>
+        <v>0.001469648495704419</v>
       </c>
       <c r="T2">
-        <v>0.001402496226913877</v>
+        <v>0.00159751752368423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H3">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I3">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J3">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N3">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O3">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P3">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q3">
-        <v>1385.0129527803</v>
+        <v>1459.091785732031</v>
       </c>
       <c r="R3">
-        <v>1385.0129527803</v>
+        <v>13131.82607158828</v>
       </c>
       <c r="S3">
-        <v>0.04598270805786758</v>
+        <v>0.0318945493426163</v>
       </c>
       <c r="T3">
-        <v>0.04598270805786758</v>
+        <v>0.0346695836683172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H4">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I4">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J4">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N4">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O4">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P4">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q4">
-        <v>614.9152720830439</v>
+        <v>1467.714284892724</v>
       </c>
       <c r="R4">
-        <v>614.9152720830439</v>
+        <v>13209.42856403451</v>
       </c>
       <c r="S4">
-        <v>0.02041531047038811</v>
+        <v>0.03208303010004816</v>
       </c>
       <c r="T4">
-        <v>0.02041531047038811</v>
+        <v>0.03487446348397023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H5">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I5">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J5">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N5">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O5">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P5">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q5">
-        <v>422.7323938273252</v>
+        <v>665.90914051266</v>
       </c>
       <c r="R5">
-        <v>422.7323938273252</v>
+        <v>5993.18226461394</v>
       </c>
       <c r="S5">
-        <v>0.01403480033377626</v>
+        <v>0.01455622747483609</v>
       </c>
       <c r="T5">
-        <v>0.01403480033377626</v>
+        <v>0.01582271443665084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H6">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I6">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J6">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N6">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O6">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P6">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q6">
-        <v>730.7898661927849</v>
+        <v>902.8624534897107</v>
       </c>
       <c r="R6">
-        <v>730.7898661927849</v>
+        <v>5417.174720938265</v>
       </c>
       <c r="S6">
-        <v>0.02426237025533535</v>
+        <v>0.01973583249115199</v>
       </c>
       <c r="T6">
-        <v>0.02426237025533535</v>
+        <v>0.01430198596978116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H7">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I7">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J7">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N7">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O7">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P7">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q7">
-        <v>271.0470609611011</v>
+        <v>443.2536171737802</v>
       </c>
       <c r="R7">
-        <v>271.0470609611011</v>
+        <v>3989.282554564022</v>
       </c>
       <c r="S7">
-        <v>0.008998816833516204</v>
+        <v>0.009689160409569108</v>
       </c>
       <c r="T7">
-        <v>0.008998816833516204</v>
+        <v>0.01053218071485526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H8">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I8">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J8">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N8">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O8">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P8">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q8">
-        <v>8886.639147359852</v>
+        <v>9619.561688093372</v>
       </c>
       <c r="R8">
-        <v>8886.639147359852</v>
+        <v>86576.05519284036</v>
       </c>
       <c r="S8">
-        <v>0.2950382035838514</v>
+        <v>0.2102757262534427</v>
       </c>
       <c r="T8">
-        <v>0.2950382035838514</v>
+        <v>0.228571089261921</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H9">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I9">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J9">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N9">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O9">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P9">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q9">
-        <v>3945.472219760123</v>
+        <v>9676.40846318518</v>
       </c>
       <c r="R9">
-        <v>3945.472219760123</v>
+        <v>87087.67616866661</v>
       </c>
       <c r="S9">
-        <v>0.1309904697046072</v>
+        <v>0.2115183501177287</v>
       </c>
       <c r="T9">
-        <v>0.1309904697046072</v>
+        <v>0.2299218295269214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H10">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I10">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J10">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N10">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O10">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P10">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q10">
-        <v>2712.371918473284</v>
+        <v>4390.23378684363</v>
       </c>
       <c r="R10">
-        <v>2712.371918473284</v>
+        <v>39512.10408159267</v>
       </c>
       <c r="S10">
-        <v>0.09005129217105559</v>
+        <v>0.09596690866836358</v>
       </c>
       <c r="T10">
-        <v>0.09005129217105559</v>
+        <v>0.1043166571732054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H11">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I11">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J11">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N11">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O11">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P11">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q11">
-        <v>4688.956749730004</v>
+        <v>5952.429553875009</v>
       </c>
       <c r="R11">
-        <v>4688.956749730004</v>
+        <v>35714.57732325006</v>
       </c>
       <c r="S11">
-        <v>0.1556743053456512</v>
+        <v>0.1301152264518202</v>
       </c>
       <c r="T11">
-        <v>0.1556743053456512</v>
+        <v>0.09429073458153425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H12">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I12">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J12">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N12">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O12">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P12">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q12">
-        <v>34.55337096827673</v>
+        <v>64.93082104656767</v>
       </c>
       <c r="R12">
-        <v>34.55337096827673</v>
+        <v>584.377389419109</v>
       </c>
       <c r="S12">
-        <v>0.001147178852342113</v>
+        <v>0.001419334476403309</v>
       </c>
       <c r="T12">
-        <v>0.001147178852342113</v>
+        <v>0.00154282585574088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H13">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I13">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J13">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N13">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O13">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P13">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q13">
-        <v>1132.878320211718</v>
+        <v>1409.139179728631</v>
       </c>
       <c r="R13">
-        <v>1132.878320211718</v>
+        <v>12682.25261755768</v>
       </c>
       <c r="S13">
-        <v>0.03761178764343742</v>
+        <v>0.03080262635836867</v>
       </c>
       <c r="T13">
-        <v>0.03761178764343742</v>
+        <v>0.03348265624523086</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H14">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I14">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J14">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N14">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O14">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P14">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q14">
-        <v>502.9730437621934</v>
+        <v>1417.466484092429</v>
       </c>
       <c r="R14">
-        <v>502.9730437621934</v>
+        <v>12757.19835683186</v>
       </c>
       <c r="S14">
-        <v>0.01669880601900964</v>
+        <v>0.03098465439972928</v>
       </c>
       <c r="T14">
-        <v>0.01669880601900964</v>
+        <v>0.0336805219163253</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H15">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I15">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J15">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N15">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O15">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P15">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q15">
-        <v>345.7760905822703</v>
+        <v>643.1114678402699</v>
       </c>
       <c r="R15">
-        <v>345.7760905822703</v>
+        <v>5788.003210562429</v>
       </c>
       <c r="S15">
-        <v>0.01147983561793984</v>
+        <v>0.01405788905428117</v>
       </c>
       <c r="T15">
-        <v>0.01147983561793984</v>
+        <v>0.01528101731527215</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H16">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I16">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J16">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N16">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O16">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P16">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q16">
-        <v>597.7532516055501</v>
+        <v>871.952586916918</v>
       </c>
       <c r="R16">
-        <v>597.7532516055501</v>
+        <v>5231.715521501507</v>
       </c>
       <c r="S16">
-        <v>0.01984552794545535</v>
+        <v>0.01906016816748162</v>
       </c>
       <c r="T16">
-        <v>0.01984552794545535</v>
+        <v>0.01381235161147641</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H17">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I17">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J17">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N17">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O17">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P17">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q17">
-        <v>33.64582543431775</v>
+        <v>68.17281900800802</v>
       </c>
       <c r="R17">
-        <v>33.64582543431775</v>
+        <v>613.5553710720721</v>
       </c>
       <c r="S17">
-        <v>0.001117048158435255</v>
+        <v>0.001490201891983984</v>
       </c>
       <c r="T17">
-        <v>0.001117048158435255</v>
+        <v>0.0016198591998223</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H18">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I18">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J18">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N18">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O18">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P18">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q18">
-        <v>1103.123230296728</v>
+        <v>1479.497543821848</v>
       </c>
       <c r="R18">
-        <v>1103.123230296728</v>
+        <v>13315.47789439663</v>
       </c>
       <c r="S18">
-        <v>0.03662391268526464</v>
+        <v>0.03234060247281238</v>
       </c>
       <c r="T18">
-        <v>0.03662391268526464</v>
+        <v>0.03515444633722423</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H19">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I19">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J19">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N19">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O19">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P19">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q19">
-        <v>489.7624386381025</v>
+        <v>1488.240630757568</v>
       </c>
       <c r="R19">
-        <v>489.7624386381025</v>
+        <v>13394.16567681811</v>
       </c>
       <c r="S19">
-        <v>0.01626021127701144</v>
+        <v>0.03253171918007162</v>
       </c>
       <c r="T19">
-        <v>0.01626021127701144</v>
+        <v>0.03536219144757398</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H20">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I20">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J20">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N20">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O20">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P20">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q20">
-        <v>336.6942690996185</v>
+        <v>675.22204389816</v>
       </c>
       <c r="R20">
-        <v>336.6942690996185</v>
+        <v>6076.998395083439</v>
       </c>
       <c r="S20">
-        <v>0.01117831732164366</v>
+        <v>0.01475979990218879</v>
       </c>
       <c r="T20">
-        <v>0.01117831732164366</v>
+        <v>0.01604399899618015</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H21">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I21">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J21">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N21">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O21">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P21">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q21">
-        <v>582.0532409060983</v>
+        <v>915.4892073337442</v>
       </c>
       <c r="R21">
-        <v>582.0532409060983</v>
+        <v>5492.935244002464</v>
       </c>
       <c r="S21">
-        <v>0.01932428443863538</v>
+        <v>0.02001184297072134</v>
       </c>
       <c r="T21">
-        <v>0.01932428443863538</v>
+        <v>0.01450200276704994</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H22">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I22">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J22">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N22">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O22">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P22">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q22">
-        <v>16.66780248167997</v>
+        <v>30.49315504664</v>
       </c>
       <c r="R22">
-        <v>16.66780248167997</v>
+        <v>182.95893027984</v>
       </c>
       <c r="S22">
-        <v>0.0005533743882631164</v>
+        <v>0.0006665553515943957</v>
       </c>
       <c r="T22">
-        <v>0.0005533743882631164</v>
+        <v>0.0004830333501695195</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H23">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I23">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J23">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N23">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O23">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P23">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q23">
-        <v>546.4761193459916</v>
+        <v>661.76738253384</v>
       </c>
       <c r="R23">
-        <v>546.4761193459916</v>
+        <v>3970.60429520304</v>
       </c>
       <c r="S23">
-        <v>0.01814311686113825</v>
+        <v>0.01446569204347227</v>
       </c>
       <c r="T23">
-        <v>0.01814311686113825</v>
+        <v>0.01048286788721317</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H24">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I24">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J24">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N24">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O24">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P24">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q24">
-        <v>242.6233710955271</v>
+        <v>665.67809518144</v>
       </c>
       <c r="R24">
-        <v>242.6233710955271</v>
+        <v>3994.06857108864</v>
       </c>
       <c r="S24">
-        <v>0.008055144624247427</v>
+        <v>0.01455117701345385</v>
       </c>
       <c r="T24">
-        <v>0.008055144624247427</v>
+        <v>0.01054481636807162</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H25">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I25">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J25">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N25">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O25">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P25">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q25">
-        <v>166.7949441460877</v>
+        <v>302.0214034728</v>
       </c>
       <c r="R25">
-        <v>166.7949441460877</v>
+        <v>1812.1284208368</v>
       </c>
       <c r="S25">
-        <v>0.005537625627833746</v>
+        <v>0.006601940090257323</v>
       </c>
       <c r="T25">
-        <v>0.005537625627833746</v>
+        <v>0.004784234695269479</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H26">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I26">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J26">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N26">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O26">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P26">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q26">
-        <v>288.3433034562808</v>
+        <v>409.49097820752</v>
       </c>
       <c r="R26">
-        <v>288.3433034562808</v>
+        <v>1637.96391283008</v>
       </c>
       <c r="S26">
-        <v>0.009573055556379682</v>
+        <v>0.008951136821898735</v>
       </c>
       <c r="T26">
-        <v>0.009573055556379682</v>
+        <v>0.004324419666539057</v>
       </c>
     </row>
   </sheetData>
